--- a/updates/FoodiePalCashFlow.xlsx
+++ b/updates/FoodiePalCashFlow.xlsx
@@ -142,9 +142,6 @@
     <t>salary for 3 (1000€/m)</t>
   </si>
   <si>
-    <t>IT expences</t>
-  </si>
-  <si>
     <t>workspace rent (200€/m)</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>all number represent EUR</t>
+  </si>
+  <si>
+    <t>IT expenses</t>
   </si>
 </sst>
 </file>
@@ -730,6 +730,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,13 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -1070,10 +1070,10 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
@@ -1600,7 +1600,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:G4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1617,12 +1617,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="2:7" ht="15" thickBot="1">
       <c r="B2" s="4"/>
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1912,15 +1912,15 @@
         <f>SUM(C5:C11)</f>
         <v>-12550</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="43">
         <f>SUM(D5:D11)</f>
         <v>11650</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="43">
         <f>SUM(E5:E11)</f>
         <v>59450</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="44">
         <f>SUM(F5:F11)</f>
         <v>156250</v>
       </c>
@@ -1944,17 +1944,17 @@
       <c r="D5" s="1">
         <v>-9000</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="41">
         <v>-13500</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="42">
         <v>-13500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="35">
         <v>-600</v>
@@ -1972,7 +1972,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="20"/>
       <c r="B7" s="23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" s="36">
         <v>-250</v>
@@ -1992,23 +1992,23 @@
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="40">
         <v>0</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="40">
         <v>24300</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="41">
         <v>85050</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="42">
         <v>182250</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="35">
         <v>0</v>
@@ -2026,7 +2026,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="35">
         <v>-2700</v>
@@ -2044,7 +2044,7 @@
     <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="38">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="50">
+      <c r="C17" s="46">
         <f>C18</f>
         <v>15000</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="B18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="45">
         <v>15000</v>
       </c>
       <c r="D18" s="2">
@@ -2168,19 +2168,19 @@
         <v>39</v>
       </c>
       <c r="B22" s="37"/>
-      <c r="C22" s="50">
+      <c r="C22" s="46">
         <f>C3+C17</f>
         <v>2450</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="43">
         <f>D3+D17</f>
         <v>11650</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="43">
         <f>E3+E17</f>
         <v>59450</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="44">
         <f>F3+F17</f>
         <v>156250</v>
       </c>
@@ -2190,26 +2190,26 @@
         <v>38</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="50">
+      <c r="C23" s="46">
         <f>C22</f>
         <v>2450</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="43">
         <f>C23+D22</f>
         <v>14100</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="43">
         <f>D23+E22</f>
         <v>73550</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="44">
         <f>E23+F22</f>
         <v>229800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
